--- a/root/packages/mpi/ballot-2023-may/CodeSystem-power-of-attorney.xlsx
+++ b/root/packages/mpi/ballot-2023-may/CodeSystem-power-of-attorney.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T09:50:45+03:00</t>
+    <t>2023-05-30T18:29:05+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
